--- a/src/test/resources/Exceldate/InputData.xlsx
+++ b/src/test/resources/Exceldate/InputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEISHREE GOPI\OneDrive\Desktop\CapGeminiTesting\magicbricks_test\src\test\resources\Exceldate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1632EBCD-CDF4-4C23-8903-A7FD037A1AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{606DE155-D17E-4C0F-AB70-3593970C9AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="1140" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>Location</t>
+    <t>Chennai</t>
   </si>
   <si>
-    <t>Chennai</t>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -351,19 +351,19 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
